--- a/data/SCHOOLS 2025.xlsx
+++ b/data/SCHOOLS 2025.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsterdamdatacollective-my.sharepoint.com/personal/thomas_b_adc-consulting_com/Documents/Documents/Collective Week/Code/Schooltuinen%20Amsterdam/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{571AFF4C-C565-464A-8E44-36D17584B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEED746B-65A0-4DCB-9E9C-1204687A3D0C}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{571AFF4C-C565-464A-8E44-36D17584B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DACFA45-1D1B-4A41-A8E1-DF2F08A5BF1E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5753D62C-6060-44DC-AE8B-171BC587F40A}"/>
+    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5753D62C-6060-44DC-AE8B-171BC587F40A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$304</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3081,10 +3084,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3404,10 +3403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43430540-BBA7-4347-B81D-8C67916B1A6D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,6 +3420,8 @@
     <col min="7" max="7" width="41" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="77.88671875" customWidth="1"/>
+    <col min="11" max="11" width="97.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.77734375" customWidth="1"/>
     <col min="15" max="15" width="33" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3486,7 +3488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>12431</v>
       </c>
@@ -3528,13 +3530,13 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -3542,7 +3544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>12431</v>
       </c>
@@ -3596,7 +3598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>12431</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>12431</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>12431</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>12431</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>12431</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12431</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>12431</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>12431</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12431</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12431</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12431</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12431</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="64.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12431</v>
       </c>
@@ -4338,7 +4340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12431</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="64.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12431</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="64.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>12431</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>12431</v>
       </c>
@@ -4562,7 +4564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>12431</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>12431</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>12431</v>
       </c>
@@ -4740,7 +4742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>12431</v>
       </c>
@@ -5020,7 +5022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="243" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>12431</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="243" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12431</v>
       </c>
@@ -5136,7 +5138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="243" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>12431</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="243" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>12431</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>12431</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>12431</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>12431</v>
       </c>
@@ -5426,7 +5428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>12431</v>
       </c>
@@ -5486,7 +5488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>12431</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>12431</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>12431</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>12431</v>
       </c>
@@ -5714,7 +5716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>12431</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>12431</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>12431</v>
       </c>
@@ -5880,7 +5882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>12431</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>12431</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>12431</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>12431</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>12431</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>12431</v>
       </c>
@@ -6230,7 +6232,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="48.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>12431</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="48.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>12431</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>12431</v>
       </c>
@@ -6398,7 +6400,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>12431</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>12431</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>12431</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>12431</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>12431</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>12431</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>12431</v>
       </c>
@@ -6802,7 +6804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>12431</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>12431</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>12431</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>12431</v>
       </c>
@@ -7086,7 +7088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>12431</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>12431</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>12431</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>12431</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>12431</v>
       </c>
@@ -7382,7 +7384,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>12431</v>
       </c>
@@ -7442,7 +7444,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>12431</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>12431</v>
       </c>
@@ -7562,7 +7564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>12431</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>12431</v>
       </c>
@@ -7682,7 +7684,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>12431</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>12431</v>
       </c>
@@ -7798,7 +7800,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>12431</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>12431</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>12431</v>
       </c>
@@ -7970,7 +7972,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>12431</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>12431</v>
       </c>
@@ -8090,7 +8092,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>12431</v>
       </c>
@@ -8148,7 +8150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>12431</v>
       </c>
@@ -8208,7 +8210,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>12431</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>12431</v>
       </c>
@@ -8320,7 +8322,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>12431</v>
       </c>
@@ -8378,7 +8380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="48.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>12431</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>12431</v>
       </c>
@@ -8498,7 +8500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>12431</v>
       </c>
@@ -8558,7 +8560,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>12431</v>
       </c>
@@ -8618,7 +8620,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>12431</v>
       </c>
@@ -8674,7 +8676,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>12431</v>
       </c>
@@ -8730,7 +8732,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>12431</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>12431</v>
       </c>
@@ -8842,7 +8844,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>12431</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>12431</v>
       </c>
@@ -8954,7 +8956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>12431</v>
       </c>
@@ -9010,7 +9012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>12431</v>
       </c>
@@ -9066,7 +9068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>12431</v>
       </c>
@@ -9126,7 +9128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="64.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>12431</v>
       </c>
@@ -9182,7 +9184,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>12431</v>
       </c>
@@ -9238,7 +9240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>12431</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>12431</v>
       </c>
@@ -9354,7 +9356,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>12431</v>
       </c>
@@ -9412,7 +9414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>12431</v>
       </c>
@@ -9470,7 +9472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>12431</v>
       </c>
@@ -9526,7 +9528,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>12431</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>12431</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>12431</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>12431</v>
       </c>
@@ -9754,7 +9756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>12431</v>
       </c>
@@ -9814,7 +9816,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>12431</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>12431</v>
       </c>
@@ -9930,7 +9932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>12431</v>
       </c>
@@ -9984,7 +9986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>12431</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>12431</v>
       </c>
@@ -10094,7 +10096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>12431</v>
       </c>
@@ -10148,7 +10150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>12431</v>
       </c>
@@ -10204,7 +10206,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>12431</v>
       </c>
@@ -10260,7 +10262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>12431</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>12431</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>12431</v>
       </c>
@@ -10426,7 +10428,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>12431</v>
       </c>
@@ -10482,7 +10484,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>12431</v>
       </c>
@@ -10538,7 +10540,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>12431</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>12431</v>
       </c>
@@ -10654,7 +10656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>12431</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>12431</v>
       </c>
@@ -10878,7 +10880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>12431</v>
       </c>
@@ -10932,7 +10934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>12431</v>
       </c>
@@ -11108,7 +11110,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>12431</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>12431</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>12431</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>12431</v>
       </c>
@@ -11344,7 +11346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>12431</v>
       </c>
@@ -11400,7 +11402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>12431</v>
       </c>
@@ -11458,7 +11460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>12431</v>
       </c>
@@ -11514,7 +11516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>12431</v>
       </c>
@@ -11574,7 +11576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>12431</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>12431</v>
       </c>
@@ -11692,7 +11694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>12431</v>
       </c>
@@ -11750,7 +11752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>12431</v>
       </c>
@@ -11810,7 +11812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>12431</v>
       </c>
@@ -11870,7 +11872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>12431</v>
       </c>
@@ -11930,7 +11932,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>12431</v>
       </c>
@@ -11986,7 +11988,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>12431</v>
       </c>
@@ -12042,7 +12044,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>12431</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>12431</v>
       </c>
@@ -12162,7 +12164,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>12431</v>
       </c>
@@ -12222,7 +12224,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>12431</v>
       </c>
@@ -12280,7 +12282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>12431</v>
       </c>
@@ -12338,7 +12340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>12431</v>
       </c>
@@ -12394,7 +12396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>12431</v>
       </c>
@@ -12450,7 +12452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>12431</v>
       </c>
@@ -12508,7 +12510,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>12431</v>
       </c>
@@ -12566,7 +12568,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>12431</v>
       </c>
@@ -12626,7 +12628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>12431</v>
       </c>
@@ -12686,7 +12688,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>12431</v>
       </c>
@@ -12740,7 +12742,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>12431</v>
       </c>
@@ -12794,7 +12796,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>12431</v>
       </c>
@@ -12852,7 +12854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>12431</v>
       </c>
@@ -12910,7 +12912,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>12431</v>
       </c>
@@ -12968,7 +12970,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>12431</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>12431</v>
       </c>
@@ -13080,7 +13082,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>12431</v>
       </c>
@@ -13136,7 +13138,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>12431</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>12431</v>
       </c>
@@ -13248,7 +13250,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>12431</v>
       </c>
@@ -13308,7 +13310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>12431</v>
       </c>
@@ -13368,7 +13370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>12431</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>12431</v>
       </c>
@@ -13484,7 +13486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>12431</v>
       </c>
@@ -13544,7 +13546,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>12431</v>
       </c>
@@ -13598,7 +13600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>12431</v>
       </c>
@@ -13654,7 +13656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>12431</v>
       </c>
@@ -13710,7 +13712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="113.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>12431</v>
       </c>
@@ -13766,7 +13768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>12431</v>
       </c>
@@ -13940,7 +13942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>12431</v>
       </c>
@@ -13998,7 +14000,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>12431</v>
       </c>
@@ -14054,7 +14056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>12431</v>
       </c>
@@ -14110,7 +14112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>12431</v>
       </c>
@@ -14166,7 +14168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>12431</v>
       </c>
@@ -14336,7 +14338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>12431</v>
       </c>
@@ -14392,7 +14394,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>12431</v>
       </c>
@@ -14448,7 +14450,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>12431</v>
       </c>
@@ -14502,7 +14504,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>12431</v>
       </c>
@@ -14556,7 +14558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>12431</v>
       </c>
@@ -14614,7 +14616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>12431</v>
       </c>
@@ -14674,7 +14676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>12431</v>
       </c>
@@ -14730,7 +14732,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>12431</v>
       </c>
@@ -14786,7 +14788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="226.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>12431</v>
       </c>
@@ -14842,7 +14844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>12431</v>
       </c>
@@ -14898,7 +14900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>12431</v>
       </c>
@@ -14954,7 +14956,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>12431</v>
       </c>
@@ -15014,7 +15016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>12431</v>
       </c>
@@ -15074,7 +15076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>12431</v>
       </c>
@@ -15124,7 +15126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>12431</v>
       </c>
@@ -15174,7 +15176,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>12431</v>
       </c>
@@ -15224,7 +15226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>12431</v>
       </c>
@@ -15284,7 +15286,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>12431</v>
       </c>
@@ -15344,7 +15346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>12431</v>
       </c>
@@ -15404,7 +15406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>12431</v>
       </c>
@@ -15460,7 +15462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>12431</v>
       </c>
@@ -15516,7 +15518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>12431</v>
       </c>
@@ -15576,7 +15578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>12431</v>
       </c>
@@ -15630,7 +15632,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>12431</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>12431</v>
       </c>
@@ -15740,7 +15742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>12431</v>
       </c>
@@ -15796,7 +15798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>12431</v>
       </c>
@@ -15852,7 +15854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>12431</v>
       </c>
@@ -15908,7 +15910,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>12431</v>
       </c>
@@ -15966,7 +15968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>12431</v>
       </c>
@@ -16026,7 +16028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>12431</v>
       </c>
@@ -16086,7 +16088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" ht="81" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>12431</v>
       </c>
@@ -16142,7 +16144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" ht="81" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>12431</v>
       </c>
@@ -16198,7 +16200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" ht="81" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>12431</v>
       </c>
@@ -16254,7 +16256,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>12431</v>
       </c>
@@ -16310,7 +16312,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>12431</v>
       </c>
@@ -16366,7 +16368,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>12431</v>
       </c>
@@ -16424,7 +16426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>12431</v>
       </c>
@@ -16484,7 +16486,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>12431</v>
       </c>
@@ -16542,7 +16544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>12431</v>
       </c>
@@ -16600,7 +16602,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>12431</v>
       </c>
@@ -16658,7 +16660,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>12431</v>
       </c>
@@ -16714,7 +16716,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>12431</v>
       </c>
@@ -16772,7 +16774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>12431</v>
       </c>
@@ -16828,7 +16830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>12431</v>
       </c>
@@ -16884,7 +16886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>12431</v>
       </c>
@@ -16944,7 +16946,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>12431</v>
       </c>
@@ -17006,7 +17008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>12431</v>
       </c>
@@ -17068,7 +17070,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>12431</v>
       </c>
@@ -17124,7 +17126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>12431</v>
       </c>
@@ -17180,7 +17182,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>12431</v>
       </c>
@@ -17236,7 +17238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>12431</v>
       </c>
@@ -17466,7 +17468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>12431</v>
       </c>
@@ -17528,7 +17530,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>12431</v>
       </c>
@@ -17590,7 +17592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>12431</v>
       </c>
@@ -17648,7 +17650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>12431</v>
       </c>
@@ -17706,7 +17708,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" ht="64.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>12431</v>
       </c>
@@ -17764,7 +17766,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>12431</v>
       </c>
@@ -17822,7 +17824,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>12431</v>
       </c>
@@ -17880,7 +17882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>12431</v>
       </c>
@@ -17938,7 +17940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="210.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" ht="48.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>12431</v>
       </c>
@@ -18000,7 +18002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="194.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>12431</v>
       </c>
@@ -18062,7 +18064,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>12431</v>
       </c>
@@ -18120,7 +18122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>12431</v>
       </c>
@@ -18244,7 +18246,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>12431</v>
       </c>
@@ -18300,7 +18302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>12431</v>
       </c>
@@ -18360,7 +18362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>12431</v>
       </c>
@@ -18414,7 +18416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>12431</v>
       </c>
@@ -18470,7 +18472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>12431</v>
       </c>
@@ -18530,7 +18532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>12431</v>
       </c>
@@ -18590,7 +18592,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>12431</v>
       </c>
@@ -18650,7 +18652,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>12431</v>
       </c>
@@ -18764,7 +18766,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>12431</v>
       </c>
@@ -18824,7 +18826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>12431</v>
       </c>
@@ -18882,7 +18884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>12431</v>
       </c>
@@ -18942,7 +18944,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>12431</v>
       </c>
@@ -19002,7 +19004,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>12431</v>
       </c>
@@ -19062,7 +19064,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>12431</v>
       </c>
@@ -19122,7 +19124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>12431</v>
       </c>
@@ -19178,7 +19180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" ht="81" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>12431</v>
       </c>
@@ -19234,7 +19236,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>12431</v>
       </c>
@@ -19294,7 +19296,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>12431</v>
       </c>
@@ -19356,7 +19358,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>12431</v>
       </c>
@@ -19418,7 +19420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>12431</v>
       </c>
@@ -19476,7 +19478,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>12431</v>
       </c>
@@ -19532,7 +19534,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>12431</v>
       </c>
@@ -19588,7 +19590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>12431</v>
       </c>
@@ -19646,7 +19648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>12431</v>
       </c>
@@ -19704,7 +19706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>12431</v>
       </c>
@@ -19760,7 +19762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>12431</v>
       </c>
@@ -19820,7 +19822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>12431</v>
       </c>
@@ -19878,7 +19880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>12431</v>
       </c>
@@ -19936,7 +19938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" ht="32.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>12431</v>
       </c>
@@ -19994,7 +19996,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>12431</v>
       </c>
@@ -20038,7 +20040,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -20051,7 +20053,7 @@
       <c r="M290" s="1"/>
       <c r="N290" s="3"/>
     </row>
-    <row r="291" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -20064,55 +20066,55 @@
       <c r="M291" s="1"/>
       <c r="N291" s="3"/>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L292" s="13"/>
       <c r="M292" s="14"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L293" s="13"/>
       <c r="M293" s="14"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L294" s="13"/>
       <c r="M294" s="14"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L295" s="13"/>
       <c r="M295" s="14"/>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L296" s="13"/>
       <c r="M296" s="14"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L297" s="13"/>
       <c r="M297" s="14"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L298" s="13"/>
       <c r="M298" s="14"/>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L299" s="13"/>
       <c r="M299" s="14"/>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L300" s="13"/>
       <c r="M300" s="14"/>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L301" s="13"/>
       <c r="M301" s="14"/>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L302" s="13"/>
       <c r="M302" s="14"/>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="L303" s="13"/>
       <c r="M303" s="14"/>
     </row>
-    <row r="304" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="15"/>
       <c r="B304" s="16"/>
       <c r="C304" s="17"/>
@@ -20135,6 +20137,13 @@
       <c r="T304" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T304" xr:uid="{43430540-BBA7-4347-B81D-8C67916B1A6D}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Aemstel Schooltuin"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="M1:M304">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ENGELS"</formula>
